--- a/data/raw_xlsx/Times For Pat Biggs.xlsx
+++ b/data/raw_xlsx/Times For Pat Biggs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="138">
   <si>
     <t>Event</t>
   </si>
@@ -365,6 +365,72 @@
   </si>
   <si>
     <t>6/23/2007</t>
+  </si>
+  <si>
+    <t>Princeton Swimming 'Big Al' Op</t>
+  </si>
+  <si>
+    <t>12/5/2008</t>
+  </si>
+  <si>
+    <t>2009 Ivy League Champs men</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>3/5/2009</t>
+  </si>
+  <si>
+    <t>2008 U. S. Open - Time Trials</t>
+  </si>
+  <si>
+    <t>7/29/2008</t>
+  </si>
+  <si>
+    <t>2019 Winter US Open (LCM)</t>
+  </si>
+  <si>
+    <t>2008 U. S. Open</t>
+  </si>
+  <si>
+    <t>2009 MA OB Bucknell Invitational</t>
+  </si>
+  <si>
+    <t>12/4/2009</t>
+  </si>
+  <si>
+    <t>Princeton Penn Cornell Dual Me</t>
+  </si>
+  <si>
+    <t>11/20/2009</t>
+  </si>
+  <si>
+    <t>11/13/2009</t>
+  </si>
+  <si>
+    <t>2009 NE LCM Open Championships</t>
+  </si>
+  <si>
+    <t>7/31/2009</t>
+  </si>
+  <si>
+    <t>2009 U. S. Open</t>
+  </si>
+  <si>
+    <t>8/4/2009</t>
+  </si>
+  <si>
+    <t>2019 Winter Juniors (SCY)</t>
+  </si>
+  <si>
+    <t>2009 NE ABF June Team Specialt</t>
+  </si>
+  <si>
+    <t>6/27/2009</t>
+  </si>
+  <si>
+    <t>12/3/2010</t>
   </si>
 </sst>
 </file>
@@ -3142,6 +3208,806 @@
         <v>115</v>
       </c>
     </row>
+    <row r="85" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.501160185185185</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.501160185185185</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19</v>
+      </c>
+      <c r="E85" t="n">
+        <v>795</v>
+      </c>
+      <c r="F85" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33.50301145833333</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.50301145833333</v>
+      </c>
+      <c r="D86" t="n">
+        <v>19</v>
+      </c>
+      <c r="E86" t="n">
+        <v>908</v>
+      </c>
+      <c r="F86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.5062755787037</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.5062755787037</v>
+      </c>
+      <c r="D87" t="n">
+        <v>19</v>
+      </c>
+      <c r="E87" t="n">
+        <v>928</v>
+      </c>
+      <c r="F87" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" t="s">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="4">
+        <v>33.51043969907408</v>
+      </c>
+      <c r="C88" s="4">
+        <v>33.51043969907408</v>
+      </c>
+      <c r="D88" t="n">
+        <v>19</v>
+      </c>
+      <c r="E88" t="n">
+        <v>932</v>
+      </c>
+      <c r="F88" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" t="s">
+        <v>118</v>
+      </c>
+      <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33.5013400462963</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.5013400462963</v>
+      </c>
+      <c r="D89" t="n">
+        <v>19</v>
+      </c>
+      <c r="E89" t="n">
+        <v>794</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" t="s">
+        <v>121</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="3">
+        <v>33.502803703703705</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33.502803703703705</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19</v>
+      </c>
+      <c r="E90" t="n">
+        <v>828</v>
+      </c>
+      <c r="F90" t="s">
+        <v>123</v>
+      </c>
+      <c r="G90" t="s">
+        <v>121</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="3">
+        <v>33.50588136574074</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.50588136574074</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19</v>
+      </c>
+      <c r="E91" t="n">
+        <v>807</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" t="s">
+        <v>124</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4">
+        <v>33.511162731481484</v>
+      </c>
+      <c r="C92" s="4">
+        <v>33.511162731481484</v>
+      </c>
+      <c r="D92" t="n">
+        <v>19</v>
+      </c>
+      <c r="E92" t="n">
+        <v>833</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="3">
+        <v>33.5011875</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.5011875</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>733</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.50316030092593</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.50316030092593</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20</v>
+      </c>
+      <c r="E94" t="n">
+        <v>780</v>
+      </c>
+      <c r="F94" t="s">
+        <v>63</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.50669398148148</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.50669398148148</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>753</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" t="s">
+        <v>119</v>
+      </c>
+      <c r="I95" t="s">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="4">
+        <v>33.51107291666667</v>
+      </c>
+      <c r="C96" s="4">
+        <v>33.51107291666667</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20</v>
+      </c>
+      <c r="E96" t="n">
+        <v>791</v>
+      </c>
+      <c r="F96" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33.500640509259256</v>
+      </c>
+      <c r="C97" s="2">
+        <v>36557.50064050926</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>559</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="3">
+        <v>33.50136944444444</v>
+      </c>
+      <c r="C98" s="3">
+        <v>33.50136944444444</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>664</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="3">
+        <v>33.501421875</v>
+      </c>
+      <c r="C99" s="3">
+        <v>33.501421875</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>562</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="3">
+        <v>33.50292905092593</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33.50292905092593</v>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
+      <c r="E100" t="n">
+        <v>677</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="2">
+        <v>33.50064861111111</v>
+      </c>
+      <c r="C101" s="2">
+        <v>36557.50064861111</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>655</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>130</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>82</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.50282546296296</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.50282546296296</v>
+      </c>
+      <c r="D102" t="n">
+        <v>20</v>
+      </c>
+      <c r="E102" t="n">
+        <v>808</v>
+      </c>
+      <c r="F102" t="s">
+        <v>63</v>
+      </c>
+      <c r="G102" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.50595092592592</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.50595092592592</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" t="n">
+        <v>776</v>
+      </c>
+      <c r="F103" t="s">
+        <v>134</v>
+      </c>
+      <c r="G103" t="s">
+        <v>132</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="4">
+        <v>33.511266203703705</v>
+      </c>
+      <c r="C104" s="4">
+        <v>33.511266203703705</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20</v>
+      </c>
+      <c r="E104" t="n">
+        <v>811</v>
+      </c>
+      <c r="F104" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="3">
+        <v>33.50078726851852</v>
+      </c>
+      <c r="C105" s="3">
+        <v>33.50078726851852</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>374</v>
+      </c>
+      <c r="F105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>135</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="3">
+        <v>33.5016880787037</v>
+      </c>
+      <c r="C106" s="3">
+        <v>33.5016880787037</v>
+      </c>
+      <c r="D106" t="n">
+        <v>20</v>
+      </c>
+      <c r="E106" t="n">
+        <v>504</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" t="s">
+        <v>135</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="3">
+        <v>33.50316585648148</v>
+      </c>
+      <c r="C107" s="3">
+        <v>33.50316585648148</v>
+      </c>
+      <c r="D107" t="n">
+        <v>21</v>
+      </c>
+      <c r="E107" t="n">
+        <v>775</v>
+      </c>
+      <c r="F107" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="4">
+        <v>33.51114872685185</v>
+      </c>
+      <c r="C108" s="4">
+        <v>33.51114872685185</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>774</v>
+      </c>
+      <c r="F108" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.502857060185185</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.502857060185185</v>
+      </c>
+      <c r="D109" t="n">
+        <v>21</v>
+      </c>
+      <c r="E109" t="n">
+        <v>738</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
